--- a/policies.xlsx
+++ b/policies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Azure\biceps-basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A2B170-18A6-494B-9757-FDB4857756F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D8FFE7-281D-4659-9DDB-6EBF6E295F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1470" yWindow="1470" windowWidth="15375" windowHeight="7875" xr2:uid="{7B819635-F5F2-4735-8EA3-2DEE0AF7DB52}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7B819635-F5F2-4735-8EA3-2DEE0AF7DB52}"/>
   </bookViews>
   <sheets>
     <sheet name="APIM Policies" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="124">
   <si>
     <t>Policy</t>
   </si>
@@ -44,52 +44,25 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Classic</t>
-  </si>
-  <si>
-    <t>V2</t>
-  </si>
-  <si>
-    <t>Consumption</t>
-  </si>
-  <si>
-    <t>Self-hosted</t>
-  </si>
-  <si>
     <t>Limit call rate by subscription</t>
   </si>
   <si>
-    <t>Prevents API usage spikes by limiting call rate, on a per subscription basis.</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>Limit call rate by key</t>
   </si>
   <si>
-    <t>Prevents API usage spikes by limiting call rate, on a per key basis.</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
     <t>Set usage quota by subscription</t>
   </si>
   <si>
-    <t>Allows you to enforce a renewable or lifetime call volume and/or bandwidth quota, on a per subscription basis.</t>
-  </si>
-  <si>
     <t>Set usage quota by key</t>
   </si>
   <si>
-    <t>Allows you to enforce a renewable or lifetime call volume and/or bandwidth quota, on a per key basis.</t>
-  </si>
-  <si>
     <t>Limit concurrency</t>
-  </si>
-  <si>
-    <t>Prevents enclosed policies from executing by more than the specified number of requests at a time.</t>
   </si>
   <si>
     <t>Validate GraphQL request</t>
@@ -486,12 +459,36 @@
   <si>
     <t>global, workspace, product, API</t>
   </si>
+  <si>
+    <t>Classic -gateways</t>
+  </si>
+  <si>
+    <t>V2-gateways</t>
+  </si>
+  <si>
+    <t>Consumption-gateways</t>
+  </si>
+  <si>
+    <t>Self-hosted-gateways</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you imported an API using a management API version prior to 2021-01-01-preview, the validate-parameters policy might not work. You may need to reimport your API using management API version 2021-01-01-preview or later.
+The maximum size of the API schema that can be used by this validation policy is 4 MB. If the schema exceeds this limit, validation policies will return errors on runtime. To increase it, please contact support.
+performance implication with size of schema and payload.
+</t>
+  </si>
+  <si>
+    <t>outbound, on-error</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,6 +526,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -625,7 +630,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -673,6 +678,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1011,24 +1025,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5907255-17FF-4F96-A893-52CE9FCCB3CA}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="C29" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.85546875" customWidth="1"/>
     <col min="2" max="2" width="77.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" customWidth="1"/>
     <col min="4" max="4" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="204" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="66" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1036,58 +1051,60 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="I1" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="J1" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>121</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -1096,31 +1113,31 @@
     </row>
     <row r="3" spans="1:13" ht="33" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1129,31 +1146,31 @@
     </row>
     <row r="4" spans="1:13" ht="33" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>123</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1162,31 +1179,31 @@
     </row>
     <row r="5" spans="1:13" ht="33" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1195,31 +1212,31 @@
     </row>
     <row r="6" spans="1:13" ht="33" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1228,31 +1245,31 @@
     </row>
     <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1261,24 +1278,24 @@
     </row>
     <row r="8" spans="1:13" ht="33" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1286,53 +1303,65 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="E9" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>122</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="E10" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1342,24 +1371,28 @@
     </row>
     <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="E11" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1369,24 +1402,24 @@
     </row>
     <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1396,24 +1429,24 @@
     </row>
     <row r="13" spans="1:13" ht="99" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1423,24 +1456,24 @@
     </row>
     <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1450,24 +1483,24 @@
     </row>
     <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1477,24 +1510,24 @@
     </row>
     <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1504,24 +1537,24 @@
     </row>
     <row r="17" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1531,24 +1564,24 @@
     </row>
     <row r="18" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1558,24 +1591,24 @@
     </row>
     <row r="19" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1585,24 +1618,24 @@
     </row>
     <row r="20" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1612,24 +1645,28 @@
     </row>
     <row r="21" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>114</v>
+      </c>
       <c r="E21" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1639,24 +1676,24 @@
     </row>
     <row r="22" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1666,24 +1703,24 @@
     </row>
     <row r="23" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1693,24 +1730,24 @@
     </row>
     <row r="24" spans="1:13" ht="33" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1720,24 +1757,24 @@
     </row>
     <row r="25" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1747,24 +1784,24 @@
     </row>
     <row r="26" spans="1:13" ht="33" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1774,24 +1811,24 @@
     </row>
     <row r="27" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1801,24 +1838,24 @@
     </row>
     <row r="28" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
       <c r="E28" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1828,24 +1865,24 @@
     </row>
     <row r="29" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1855,24 +1892,24 @@
     </row>
     <row r="30" spans="1:13" ht="33" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1882,24 +1919,24 @@
     </row>
     <row r="31" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1909,24 +1946,24 @@
     </row>
     <row r="32" spans="1:13" ht="33" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1936,24 +1973,24 @@
     </row>
     <row r="33" spans="1:13" ht="33" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1963,24 +2000,24 @@
     </row>
     <row r="34" spans="1:13" ht="33" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1990,24 +2027,24 @@
     </row>
     <row r="35" spans="1:13" ht="33" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -2017,24 +2054,24 @@
     </row>
     <row r="36" spans="1:13" ht="33" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -2044,24 +2081,24 @@
     </row>
     <row r="37" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -2071,24 +2108,24 @@
     </row>
     <row r="38" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -2098,24 +2135,24 @@
     </row>
     <row r="39" spans="1:13" ht="33" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2125,24 +2162,24 @@
     </row>
     <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
       <c r="E40" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -2152,24 +2189,24 @@
     </row>
     <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
       <c r="E41" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -2179,24 +2216,24 @@
     </row>
     <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -2206,24 +2243,24 @@
     </row>
     <row r="43" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2233,24 +2270,24 @@
     </row>
     <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2275,24 +2312,24 @@
     </row>
     <row r="46" spans="1:13" ht="33" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2302,24 +2339,24 @@
     </row>
     <row r="47" spans="1:13" ht="33" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2329,24 +2366,24 @@
     </row>
     <row r="48" spans="1:13" ht="33" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -2356,24 +2393,24 @@
     </row>
     <row r="49" spans="1:13" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -2383,24 +2420,24 @@
     </row>
     <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -2410,24 +2447,24 @@
     </row>
     <row r="51" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -2437,24 +2474,24 @@
     </row>
     <row r="52" spans="1:13" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -2464,24 +2501,24 @@
     </row>
     <row r="53" spans="1:13" ht="33" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -2580,5 +2617,6 @@
     <hyperlink ref="A53" r:id="rId57" display="https://learn.microsoft.com/en-us/azure/api-management/wait-policy" xr:uid="{37A68ACF-CB9E-4057-BE70-AE077CF1A71F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId58"/>
 </worksheet>
 </file>